--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H2">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I2">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J2">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N2">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q2">
-        <v>173.437189210356</v>
+        <v>270.8783108912114</v>
       </c>
       <c r="R2">
-        <v>1560.934702893204</v>
+        <v>2437.904798020902</v>
       </c>
       <c r="S2">
-        <v>0.205655021921574</v>
+        <v>0.2409528531117298</v>
       </c>
       <c r="T2">
-        <v>0.2056550219215741</v>
+        <v>0.2409528531117298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H3">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I3">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J3">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>120.711086</v>
       </c>
       <c r="O3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q3">
-        <v>156.656795322338</v>
+        <v>237.3332583222076</v>
       </c>
       <c r="R3">
-        <v>1409.911157901042</v>
+        <v>2135.999324899868</v>
       </c>
       <c r="S3">
-        <v>0.1857574884767289</v>
+        <v>0.2111137120683165</v>
       </c>
       <c r="T3">
-        <v>0.185757488476729</v>
+        <v>0.2111137120683165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H4">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I4">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J4">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N4">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q4">
-        <v>78.48875302643199</v>
+        <v>139.2206723014416</v>
       </c>
       <c r="R4">
-        <v>706.398777237888</v>
+        <v>1252.986050712974</v>
       </c>
       <c r="S4">
-        <v>0.093068887346129</v>
+        <v>0.1238401778746986</v>
       </c>
       <c r="T4">
-        <v>0.09306888734612905</v>
+        <v>0.1238401778746986</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H5">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I5">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J5">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N5">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q5">
-        <v>62.51801740088799</v>
+        <v>113.405414390748</v>
       </c>
       <c r="R5">
-        <v>562.662156607992</v>
+        <v>1020.648729516732</v>
       </c>
       <c r="S5">
-        <v>0.07413141493822863</v>
+        <v>0.100876877391424</v>
       </c>
       <c r="T5">
-        <v>0.07413141493822864</v>
+        <v>0.100876877391424</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H6">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I6">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J6">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N6">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q6">
-        <v>91.07097464340998</v>
+        <v>119.2306616848538</v>
       </c>
       <c r="R6">
-        <v>819.6387717906898</v>
+        <v>1073.075955163684</v>
       </c>
       <c r="S6">
-        <v>0.1079883926393295</v>
+        <v>0.1060585766975743</v>
       </c>
       <c r="T6">
-        <v>0.1079883926393295</v>
+        <v>0.1060585766975743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H7">
         <v>2.388977</v>
       </c>
       <c r="I7">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J7">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N7">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O7">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P7">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q7">
-        <v>35.47395451132933</v>
+        <v>36.57061360685366</v>
       </c>
       <c r="R7">
-        <v>319.265590601964</v>
+        <v>329.135522461683</v>
       </c>
       <c r="S7">
-        <v>0.04206362502694864</v>
+        <v>0.03253045125549747</v>
       </c>
       <c r="T7">
-        <v>0.04206362502694865</v>
+        <v>0.03253045125549747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H8">
         <v>2.388977</v>
       </c>
       <c r="I8">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J8">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>120.711086</v>
       </c>
       <c r="O8">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P8">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q8">
         <v>32.04177867766911</v>
@@ -948,10 +948,10 @@
         <v>288.376008099022</v>
       </c>
       <c r="S8">
-        <v>0.03799388543116912</v>
+        <v>0.02850194231408823</v>
       </c>
       <c r="T8">
-        <v>0.03799388543116913</v>
+        <v>0.02850194231408822</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H9">
         <v>2.388977</v>
       </c>
       <c r="I9">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J9">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N9">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O9">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P9">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q9">
-        <v>16.05368760406756</v>
+        <v>18.79584008063011</v>
       </c>
       <c r="R9">
-        <v>144.483188436608</v>
+        <v>169.162560725671</v>
       </c>
       <c r="S9">
-        <v>0.01903583361312615</v>
+        <v>0.01671935740871667</v>
       </c>
       <c r="T9">
-        <v>0.01903583361312616</v>
+        <v>0.01671935740871667</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H10">
         <v>2.388977</v>
       </c>
       <c r="I10">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J10">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N10">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O10">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P10">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q10">
-        <v>12.78711512516356</v>
+        <v>15.310585690542</v>
       </c>
       <c r="R10">
-        <v>115.084036126472</v>
+        <v>137.795271214878</v>
       </c>
       <c r="S10">
-        <v>0.01516245998538231</v>
+        <v>0.01361913876681447</v>
       </c>
       <c r="T10">
-        <v>0.01516245998538231</v>
+        <v>0.01361913876681447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H11">
         <v>2.388977</v>
       </c>
       <c r="I11">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J11">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N11">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O11">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P11">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q11">
-        <v>18.62719078019889</v>
+        <v>16.09703798070955</v>
       </c>
       <c r="R11">
-        <v>167.64471702179</v>
+        <v>144.873341826386</v>
       </c>
       <c r="S11">
-        <v>0.02208739282319047</v>
+        <v>0.0143187072281234</v>
       </c>
       <c r="T11">
-        <v>0.02208739282319048</v>
+        <v>0.0143187072281234</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H12">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I12">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J12">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N12">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O12">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P12">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q12">
-        <v>8.381793610863999</v>
+        <v>5.928277534048334</v>
       </c>
       <c r="R12">
-        <v>75.43614249777599</v>
+        <v>53.35449780643501</v>
       </c>
       <c r="S12">
-        <v>0.009938802379307813</v>
+        <v>0.005273347213246602</v>
       </c>
       <c r="T12">
-        <v>0.009938802379307814</v>
+        <v>0.005273347213246603</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H13">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I13">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J13">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>120.711086</v>
       </c>
       <c r="O13">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P13">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q13">
-        <v>7.570838365805333</v>
+        <v>5.194130968865555</v>
       </c>
       <c r="R13">
-        <v>68.13754529224801</v>
+        <v>46.74717871979001</v>
       </c>
       <c r="S13">
-        <v>0.008977203431243233</v>
+        <v>0.004620305967895621</v>
       </c>
       <c r="T13">
-        <v>0.008977203431243237</v>
+        <v>0.004620305967895622</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H14">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I14">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J14">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N14">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O14">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P14">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q14">
-        <v>3.793168764074667</v>
+        <v>3.046898739010556</v>
       </c>
       <c r="R14">
-        <v>34.138518876672</v>
+        <v>27.422088651095</v>
       </c>
       <c r="S14">
-        <v>0.004497790865267473</v>
+        <v>0.002710290616814921</v>
       </c>
       <c r="T14">
-        <v>0.004497790865267475</v>
+        <v>0.002710290616814922</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H15">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I15">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J15">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N15">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O15">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P15">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q15">
-        <v>3.021342315338666</v>
+        <v>2.48192174619</v>
       </c>
       <c r="R15">
-        <v>27.192080838048</v>
+        <v>22.33729571571</v>
       </c>
       <c r="S15">
-        <v>0.003582589310415621</v>
+        <v>0.002207729825163828</v>
       </c>
       <c r="T15">
-        <v>0.003582589310415622</v>
+        <v>0.002207729825163829</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H16">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I16">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J16">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N16">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O16">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P16">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q16">
-        <v>4.401236648706666</v>
+        <v>2.609409556307777</v>
       </c>
       <c r="R16">
-        <v>39.61112983835999</v>
+        <v>23.48468600677</v>
       </c>
       <c r="S16">
-        <v>0.005218813932541284</v>
+        <v>0.002321133336444515</v>
       </c>
       <c r="T16">
-        <v>0.005218813932541285</v>
+        <v>0.002321133336444515</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H17">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I17">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J17">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N17">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O17">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P17">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q17">
-        <v>29.17540341312533</v>
+        <v>22.85020985778767</v>
       </c>
       <c r="R17">
-        <v>262.578630718128</v>
+        <v>205.651888720089</v>
       </c>
       <c r="S17">
-        <v>0.03459504997639105</v>
+        <v>0.02032581804471947</v>
       </c>
       <c r="T17">
-        <v>0.03459504997639107</v>
+        <v>0.02032581804471946</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H18">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I18">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J18">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>120.711086</v>
       </c>
       <c r="O18">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P18">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q18">
-        <v>26.35262495746045</v>
+        <v>20.02048351915845</v>
       </c>
       <c r="R18">
-        <v>237.173624617144</v>
+        <v>180.184351672426</v>
       </c>
       <c r="S18">
-        <v>0.03124790990901244</v>
+        <v>0.01780870756594085</v>
       </c>
       <c r="T18">
-        <v>0.03124790990901245</v>
+        <v>0.01780870756594085</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H19">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I19">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J19">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N19">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O19">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P19">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q19">
-        <v>13.20328727284622</v>
+        <v>11.74409855172144</v>
       </c>
       <c r="R19">
-        <v>118.829585455616</v>
+        <v>105.696886965493</v>
       </c>
       <c r="S19">
-        <v>0.01565594060822047</v>
+        <v>0.01044666161699116</v>
       </c>
       <c r="T19">
-        <v>0.01565594060822048</v>
+        <v>0.01044666161699116</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H20">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I20">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J20">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N20">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O20">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P20">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q20">
-        <v>10.51670859383822</v>
+        <v>9.566426744586002</v>
       </c>
       <c r="R20">
-        <v>94.650377344544</v>
+        <v>86.097840701274</v>
       </c>
       <c r="S20">
-        <v>0.01247030089830044</v>
+        <v>0.00850956952075096</v>
       </c>
       <c r="T20">
-        <v>0.01247030089830045</v>
+        <v>0.008509569520750958</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H21">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I21">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J21">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N21">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O21">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P21">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q21">
-        <v>15.31985404367556</v>
+        <v>10.05782128520422</v>
       </c>
       <c r="R21">
-        <v>137.87868639308</v>
+        <v>90.52039156683799</v>
       </c>
       <c r="S21">
-        <v>0.01816568253632242</v>
+        <v>0.008946676929520355</v>
       </c>
       <c r="T21">
-        <v>0.01816568253632243</v>
+        <v>0.008946676929520352</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H22">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I22">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J22">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N22">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O22">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P22">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q22">
-        <v>13.71299079959333</v>
+        <v>9.791634962109001</v>
       </c>
       <c r="R22">
-        <v>123.41691719634</v>
+        <v>88.12471465898101</v>
       </c>
       <c r="S22">
-        <v>0.0162603270748366</v>
+        <v>0.008709897713797642</v>
       </c>
       <c r="T22">
-        <v>0.01626032707483661</v>
+        <v>0.00870989771379764</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H23">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I23">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J23">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>120.711086</v>
       </c>
       <c r="O23">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P23">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q23">
-        <v>12.38623159617445</v>
+        <v>8.579057593105999</v>
       </c>
       <c r="R23">
-        <v>111.47608436557</v>
+        <v>77.211518337954</v>
       </c>
       <c r="S23">
-        <v>0.01468710800742641</v>
+        <v>0.007631280619211101</v>
       </c>
       <c r="T23">
-        <v>0.01468710800742641</v>
+        <v>0.007631280619211101</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H24">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I24">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J24">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N24">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O24">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P24">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q24">
-        <v>6.205794460942222</v>
+        <v>5.032510716232999</v>
       </c>
       <c r="R24">
-        <v>55.85215014848001</v>
+        <v>45.292596446097</v>
       </c>
       <c r="S24">
-        <v>0.007358587865246897</v>
+        <v>0.004476540817912487</v>
       </c>
       <c r="T24">
-        <v>0.0073585878652469</v>
+        <v>0.004476540817912488</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H25">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I25">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J25">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N25">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O25">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P25">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q25">
-        <v>4.943051725702222</v>
+        <v>4.099347846594</v>
       </c>
       <c r="R25">
-        <v>44.48746553132</v>
+        <v>36.894130619346</v>
       </c>
       <c r="S25">
-        <v>0.005861277016982848</v>
+        <v>0.003646469723930554</v>
       </c>
       <c r="T25">
-        <v>0.005861277016982849</v>
+        <v>0.003646469723930553</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H26">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I26">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J26">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N26">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O26">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P26">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q26">
-        <v>7.200620830405556</v>
+        <v>4.309917289677999</v>
       </c>
       <c r="R26">
-        <v>64.80558747364999</v>
+        <v>38.78925560710199</v>
       </c>
       <c r="S26">
-        <v>0.0085382139866781</v>
+        <v>0.003833776370676496</v>
       </c>
       <c r="T26">
-        <v>0.008538213986678101</v>
+        <v>0.003833776370676496</v>
       </c>
     </row>
   </sheetData>
